--- a/cc-mvs/mvs.xlsx
+++ b/cc-mvs/mvs.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dati\vito.tranquillo\Desktop\GitProjects\C_Charts\cc-mvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A800BF1-5963-4381-AED7-6ABCA262D0ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E74FF6-3824-4427-A478-72B0C75DB199}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{500FBA4C-706A-4713-A5EA-806E62130F51}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{500FBA4C-706A-4713-A5EA-806E62130F51}"/>
   </bookViews>
   <sheets>
-    <sheet name="mvs" sheetId="1" r:id="rId1"/>
+    <sheet name="MVS" sheetId="1" r:id="rId1"/>
+    <sheet name="sierotipo A" sheetId="2" r:id="rId2"/>
+    <sheet name="Asia1" sheetId="3" r:id="rId3"/>
+    <sheet name="SAT2" sheetId="4" r:id="rId4"/>
+    <sheet name="OM" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="194">
   <si>
     <t>data</t>
   </si>
@@ -425,6 +429,189 @@
   <si>
     <t>21/09/2020</t>
   </si>
+  <si>
+    <t>22/09/2020</t>
+  </si>
+  <si>
+    <t>23/09/2020</t>
+  </si>
+  <si>
+    <t>24/09/2020</t>
+  </si>
+  <si>
+    <t>25/09/2020</t>
+  </si>
+  <si>
+    <t>28/09/2020</t>
+  </si>
+  <si>
+    <t>29/09/2020</t>
+  </si>
+  <si>
+    <t>30/09/2020</t>
+  </si>
+  <si>
+    <t>01/10/2020</t>
+  </si>
+  <si>
+    <t>01/01/2020</t>
+  </si>
+  <si>
+    <t>02/10/2020</t>
+  </si>
+  <si>
+    <t>05/10/2020</t>
+  </si>
+  <si>
+    <t>06/10/2020</t>
+  </si>
+  <si>
+    <t>07/10/2020</t>
+  </si>
+  <si>
+    <t>08/10/2020</t>
+  </si>
+  <si>
+    <t>09/10/2020</t>
+  </si>
+  <si>
+    <t>12/10/2020</t>
+  </si>
+  <si>
+    <t>13/10/2020</t>
+  </si>
+  <si>
+    <t>14/10/2020</t>
+  </si>
+  <si>
+    <t>15/10/2020</t>
+  </si>
+  <si>
+    <t>16/10/2020</t>
+  </si>
+  <si>
+    <t>19/10/2020</t>
+  </si>
+  <si>
+    <t>20/10/2020</t>
+  </si>
+  <si>
+    <t>21/10/2020</t>
+  </si>
+  <si>
+    <t>22/10/2020</t>
+  </si>
+  <si>
+    <t>23/10/2020</t>
+  </si>
+  <si>
+    <t>26/10/2020</t>
+  </si>
+  <si>
+    <t>27/10/2020</t>
+  </si>
+  <si>
+    <t>28/10/2020</t>
+  </si>
+  <si>
+    <t>29/10/2020</t>
+  </si>
+  <si>
+    <t>30/10/2020</t>
+  </si>
+  <si>
+    <t>02/11/2020</t>
+  </si>
+  <si>
+    <t>03/11/2020</t>
+  </si>
+  <si>
+    <t>04/11/2020</t>
+  </si>
+  <si>
+    <t>05/11/2020</t>
+  </si>
+  <si>
+    <t>06/11/2020</t>
+  </si>
+  <si>
+    <t>09/11/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
+  </si>
+  <si>
+    <t>11/11/2020</t>
+  </si>
+  <si>
+    <t>12/11/2020</t>
+  </si>
+  <si>
+    <t>13/11/2020</t>
+  </si>
+  <si>
+    <t>16/11/2020</t>
+  </si>
+  <si>
+    <t>17/11/2020</t>
+  </si>
+  <si>
+    <t>18/11/2020</t>
+  </si>
+  <si>
+    <t>19/11/2020</t>
+  </si>
+  <si>
+    <t>20/11/2020</t>
+  </si>
+  <si>
+    <t>23/11/2020</t>
+  </si>
+  <si>
+    <t>24/11/2020</t>
+  </si>
+  <si>
+    <t>25/11/2020</t>
+  </si>
+  <si>
+    <t>26/11/2020</t>
+  </si>
+  <si>
+    <t>27/11/2020</t>
+  </si>
+  <si>
+    <t>30/11/2020</t>
+  </si>
+  <si>
+    <t>01/12/2020</t>
+  </si>
+  <si>
+    <t>02/12/2020</t>
+  </si>
+  <si>
+    <t>03/12/2020</t>
+  </si>
+  <si>
+    <t>04/12/2020</t>
+  </si>
+  <si>
+    <t>07/12/2020</t>
+  </si>
+  <si>
+    <t>09/12/2020</t>
+  </si>
+  <si>
+    <t>11/12/2020</t>
+  </si>
+  <si>
+    <t>ICp10</t>
+  </si>
+  <si>
+    <t>ICp30</t>
+  </si>
+  <si>
+    <t>22/01/2020</t>
+  </si>
 </sst>
 </file>
 
@@ -468,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -483,6 +670,22 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -800,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D38FEA-2136-4DB7-8E2B-65126C88DAD5}">
-  <dimension ref="A1:F590"/>
+  <dimension ref="A1:F798"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A593" sqref="A593"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12611,8 +12814,7322 @@
         <v>75</v>
       </c>
     </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A591" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B591">
+        <v>590</v>
+      </c>
+      <c r="C591" s="4">
+        <v>1.722</v>
+      </c>
+      <c r="D591" s="6">
+        <v>0</v>
+      </c>
+      <c r="E591" s="6">
+        <v>68</v>
+      </c>
+      <c r="F591" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A592" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B592">
+        <v>591</v>
+      </c>
+      <c r="C592" s="6">
+        <v>1.69</v>
+      </c>
+      <c r="D592" s="6">
+        <v>6</v>
+      </c>
+      <c r="E592" s="6">
+        <v>80</v>
+      </c>
+      <c r="F592" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A593" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B593">
+        <v>592</v>
+      </c>
+      <c r="C593" s="4">
+        <v>1.9390000000000001</v>
+      </c>
+      <c r="D593" s="6">
+        <v>30</v>
+      </c>
+      <c r="E593" s="6">
+        <v>60</v>
+      </c>
+      <c r="F593" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A594" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B594">
+        <v>593</v>
+      </c>
+      <c r="C594" s="4">
+        <v>1.7970000000000002</v>
+      </c>
+      <c r="D594" s="6">
+        <v>29</v>
+      </c>
+      <c r="E594" s="6">
+        <v>72</v>
+      </c>
+      <c r="F594" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A595" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B595">
+        <v>594</v>
+      </c>
+      <c r="C595" s="4">
+        <v>1.847</v>
+      </c>
+      <c r="D595" s="6">
+        <v>17</v>
+      </c>
+      <c r="E595" s="6">
+        <v>58</v>
+      </c>
+      <c r="F595" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A596" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B596">
+        <v>595</v>
+      </c>
+      <c r="C596" s="4">
+        <v>1.843</v>
+      </c>
+      <c r="D596" s="6">
+        <v>17</v>
+      </c>
+      <c r="E596" s="6">
+        <v>90</v>
+      </c>
+      <c r="F596" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A597" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B597">
+        <v>596</v>
+      </c>
+      <c r="C597" s="4">
+        <v>1.9140000000000001</v>
+      </c>
+      <c r="D597" s="6">
+        <v>2</v>
+      </c>
+      <c r="E597" s="6">
+        <v>74</v>
+      </c>
+      <c r="F597" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A598" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B598">
+        <v>597</v>
+      </c>
+      <c r="C598" s="4">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="D598" s="6">
+        <v>0</v>
+      </c>
+      <c r="E598" s="6">
+        <v>56</v>
+      </c>
+      <c r="F598" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A599" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B599">
+        <v>598</v>
+      </c>
+      <c r="C599" s="4">
+        <v>1.9570000000000001</v>
+      </c>
+      <c r="D599" s="6">
+        <v>0</v>
+      </c>
+      <c r="E599" s="6">
+        <v>30</v>
+      </c>
+      <c r="F599" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A600" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B600">
+        <v>599</v>
+      </c>
+      <c r="C600" s="4">
+        <v>1.8069999999999999</v>
+      </c>
+      <c r="D600" s="6">
+        <v>4</v>
+      </c>
+      <c r="E600" s="6">
+        <v>63</v>
+      </c>
+      <c r="F600" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A601" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B601">
+        <v>600</v>
+      </c>
+      <c r="C601" s="4">
+        <v>1.7269999999999999</v>
+      </c>
+      <c r="D601" s="6">
+        <v>4</v>
+      </c>
+      <c r="E601" s="6">
+        <v>64</v>
+      </c>
+      <c r="F601" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A602" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B602">
+        <v>601</v>
+      </c>
+      <c r="C602" s="4">
+        <v>2.048</v>
+      </c>
+      <c r="D602" s="6">
+        <v>15</v>
+      </c>
+      <c r="E602" s="6">
+        <v>49</v>
+      </c>
+      <c r="F602" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A603" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B603">
+        <v>602</v>
+      </c>
+      <c r="C603" s="4">
+        <v>2.2320000000000002</v>
+      </c>
+      <c r="D603" s="6">
+        <v>11</v>
+      </c>
+      <c r="E603" s="6">
+        <v>33</v>
+      </c>
+      <c r="F603" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A604" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B604">
+        <v>603</v>
+      </c>
+      <c r="C604" s="4">
+        <v>2.1310000000000002</v>
+      </c>
+      <c r="D604" s="6">
+        <v>12</v>
+      </c>
+      <c r="E604" s="6">
+        <v>30</v>
+      </c>
+      <c r="F604" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A605" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B605">
+        <v>604</v>
+      </c>
+      <c r="C605" s="4">
+        <v>2.3010000000000002</v>
+      </c>
+      <c r="D605" s="6">
+        <v>0</v>
+      </c>
+      <c r="E605" s="6">
+        <v>26</v>
+      </c>
+      <c r="F605" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A606" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B606">
+        <v>605</v>
+      </c>
+      <c r="C606" s="4">
+        <v>2.3970000000000002</v>
+      </c>
+      <c r="D606" s="6">
+        <v>5</v>
+      </c>
+      <c r="E606" s="6">
+        <v>48</v>
+      </c>
+      <c r="F606" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A607" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B607">
+        <v>606</v>
+      </c>
+      <c r="C607" s="4">
+        <v>2.403</v>
+      </c>
+      <c r="D607" s="6">
+        <v>0</v>
+      </c>
+      <c r="E607" s="6">
+        <v>28</v>
+      </c>
+      <c r="F607" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A608" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B608">
+        <v>607</v>
+      </c>
+      <c r="C608" s="4">
+        <v>2.4969999999999999</v>
+      </c>
+      <c r="D608" s="6">
+        <v>1</v>
+      </c>
+      <c r="E608" s="6">
+        <v>39</v>
+      </c>
+      <c r="F608" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A609" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B609">
+        <v>608</v>
+      </c>
+      <c r="C609" s="4">
+        <v>2.4529999999999998</v>
+      </c>
+      <c r="D609" s="6">
+        <v>2</v>
+      </c>
+      <c r="E609" s="6">
+        <v>35</v>
+      </c>
+      <c r="F609" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A610" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B610">
+        <v>609</v>
+      </c>
+      <c r="C610" s="4">
+        <v>2.294</v>
+      </c>
+      <c r="D610" s="6">
+        <v>3</v>
+      </c>
+      <c r="E610" s="6">
+        <v>47</v>
+      </c>
+      <c r="F610" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A611" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B611">
+        <v>610</v>
+      </c>
+      <c r="C611" s="4">
+        <v>2.0920000000000001</v>
+      </c>
+      <c r="D611" s="6">
+        <v>0</v>
+      </c>
+      <c r="E611" s="6">
+        <v>62</v>
+      </c>
+      <c r="F611" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A612" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B612">
+        <v>611</v>
+      </c>
+      <c r="C612" s="4">
+        <v>2.121</v>
+      </c>
+      <c r="D612" s="6">
+        <v>3</v>
+      </c>
+      <c r="E612" s="6">
+        <v>57</v>
+      </c>
+      <c r="F612" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A613" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B613">
+        <v>612</v>
+      </c>
+      <c r="C613" s="4">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="D613" s="6">
+        <v>14</v>
+      </c>
+      <c r="E613" s="6">
+        <v>67</v>
+      </c>
+      <c r="F613" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A614" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B614">
+        <v>613</v>
+      </c>
+      <c r="C614" s="4">
+        <v>1.962</v>
+      </c>
+      <c r="D614" s="6">
+        <v>11</v>
+      </c>
+      <c r="E614" s="6">
+        <v>56</v>
+      </c>
+      <c r="F614" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A615" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B615">
+        <v>614</v>
+      </c>
+      <c r="C615" s="4">
+        <v>1.8080000000000001</v>
+      </c>
+      <c r="D615" s="6">
+        <v>0</v>
+      </c>
+      <c r="E615" s="6">
+        <v>94</v>
+      </c>
+      <c r="F615" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A616" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B616">
+        <v>615</v>
+      </c>
+      <c r="C616" s="4">
+        <v>1.841</v>
+      </c>
+      <c r="D616" s="6">
+        <v>0</v>
+      </c>
+      <c r="E616" s="6">
+        <v>94</v>
+      </c>
+      <c r="F616" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A617" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B617">
+        <v>616</v>
+      </c>
+      <c r="C617" s="4">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="D617" s="6">
+        <v>0</v>
+      </c>
+      <c r="E617" s="6">
+        <v>53</v>
+      </c>
+      <c r="F617" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A618" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B618">
+        <v>617</v>
+      </c>
+      <c r="C618" s="4">
+        <v>1.9490000000000001</v>
+      </c>
+      <c r="D618" s="6">
+        <v>14</v>
+      </c>
+      <c r="E618" s="6">
+        <v>79</v>
+      </c>
+      <c r="F618" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A619" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B619">
+        <v>618</v>
+      </c>
+      <c r="C619" s="4">
+        <v>2.3839999999999999</v>
+      </c>
+      <c r="D619" s="6">
+        <v>0</v>
+      </c>
+      <c r="E619" s="6">
+        <v>42</v>
+      </c>
+      <c r="F619" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A620" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B620">
+        <v>619</v>
+      </c>
+      <c r="C620" s="4">
+        <v>2.093</v>
+      </c>
+      <c r="D620" s="6">
+        <v>5</v>
+      </c>
+      <c r="E620" s="6">
+        <v>51</v>
+      </c>
+      <c r="F620" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A621" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B621">
+        <v>620</v>
+      </c>
+      <c r="C621" s="4">
+        <v>2.0419999999999998</v>
+      </c>
+      <c r="D621" s="6">
+        <v>3</v>
+      </c>
+      <c r="E621" s="6">
+        <v>60</v>
+      </c>
+      <c r="F621" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A622" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B622">
+        <v>621</v>
+      </c>
+      <c r="C622" s="4">
+        <v>1.5430000000000001</v>
+      </c>
+      <c r="D622" s="6">
+        <v>0</v>
+      </c>
+      <c r="E622" s="6">
+        <v>77</v>
+      </c>
+      <c r="F622" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A623" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B623">
+        <v>622</v>
+      </c>
+      <c r="C623" s="4">
+        <v>1.633</v>
+      </c>
+      <c r="D623" s="6">
+        <v>0</v>
+      </c>
+      <c r="E623" s="6">
+        <v>44</v>
+      </c>
+      <c r="F623" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A624" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B624">
+        <v>623</v>
+      </c>
+      <c r="C624" s="4">
+        <v>2.0819999999999999</v>
+      </c>
+      <c r="D624" s="6">
+        <v>11</v>
+      </c>
+      <c r="E624" s="6">
+        <v>46</v>
+      </c>
+      <c r="F624" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A625" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B625">
+        <v>624</v>
+      </c>
+      <c r="C625" s="4">
+        <v>1.9830000000000001</v>
+      </c>
+      <c r="D625" s="6">
+        <v>30</v>
+      </c>
+      <c r="E625" s="6">
+        <v>52</v>
+      </c>
+      <c r="F625" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A626" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B626">
+        <v>625</v>
+      </c>
+      <c r="C626" s="4">
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="D626" s="6">
+        <v>7</v>
+      </c>
+      <c r="E626" s="6">
+        <v>37</v>
+      </c>
+      <c r="F626" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A627" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B627">
+        <v>626</v>
+      </c>
+      <c r="C627" s="4">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="D627" s="6">
+        <v>28</v>
+      </c>
+      <c r="E627" s="6">
+        <v>9</v>
+      </c>
+      <c r="F627" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A628" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B628">
+        <v>627</v>
+      </c>
+      <c r="C628" s="4">
+        <v>1.7970000000000002</v>
+      </c>
+      <c r="D628" s="6">
+        <v>19</v>
+      </c>
+      <c r="E628" s="6">
+        <v>61</v>
+      </c>
+      <c r="F628" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A629" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B629">
+        <v>628</v>
+      </c>
+      <c r="C629" s="4">
+        <v>1.867</v>
+      </c>
+      <c r="D629" s="6">
+        <v>3</v>
+      </c>
+      <c r="E629" s="6">
+        <v>14</v>
+      </c>
+      <c r="F629" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A630" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B630">
+        <v>629</v>
+      </c>
+      <c r="C630" s="4">
+        <v>1.988</v>
+      </c>
+      <c r="D630" s="6">
+        <v>18</v>
+      </c>
+      <c r="E630" s="6">
+        <v>38</v>
+      </c>
+      <c r="F630" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A631" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B631">
+        <v>630</v>
+      </c>
+      <c r="C631" s="4">
+        <v>1.865</v>
+      </c>
+      <c r="D631" s="6">
+        <v>10</v>
+      </c>
+      <c r="E631" s="6">
+        <v>44</v>
+      </c>
+      <c r="F631" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A632" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B632">
+        <v>631</v>
+      </c>
+      <c r="C632" s="4">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="D632" s="6">
+        <v>0</v>
+      </c>
+      <c r="E632" s="6">
+        <v>89</v>
+      </c>
+      <c r="F632" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A633" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B633">
+        <v>632</v>
+      </c>
+      <c r="C633" s="4">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="D633" s="6">
+        <v>0</v>
+      </c>
+      <c r="E633" s="6">
+        <v>91</v>
+      </c>
+      <c r="F633" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A634" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B634">
+        <v>633</v>
+      </c>
+      <c r="C634" s="4">
+        <v>1.238</v>
+      </c>
+      <c r="D634" s="6">
+        <v>0</v>
+      </c>
+      <c r="E634" s="6">
+        <v>88</v>
+      </c>
+      <c r="F634" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A635" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B635">
+        <v>634</v>
+      </c>
+      <c r="C635" s="4">
+        <v>1.8759999999999999</v>
+      </c>
+      <c r="D635" s="6">
+        <v>7</v>
+      </c>
+      <c r="E635" s="6">
+        <v>53</v>
+      </c>
+      <c r="F635" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A636" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B636">
+        <v>635</v>
+      </c>
+      <c r="C636" s="4">
+        <v>1.948</v>
+      </c>
+      <c r="D636" s="6">
+        <v>4</v>
+      </c>
+      <c r="E636" s="6">
+        <v>75</v>
+      </c>
+      <c r="F636" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A637" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B637">
+        <v>636</v>
+      </c>
+      <c r="C637" s="4">
+        <v>2.0950000000000002</v>
+      </c>
+      <c r="D637" s="6">
+        <v>5</v>
+      </c>
+      <c r="E637" s="6">
+        <v>53</v>
+      </c>
+      <c r="F637" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A638" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B638">
+        <v>637</v>
+      </c>
+      <c r="C638" s="4">
+        <v>2.0209999999999999</v>
+      </c>
+      <c r="D638" s="6">
+        <v>5</v>
+      </c>
+      <c r="E638" s="6">
+        <v>39</v>
+      </c>
+      <c r="F638" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A639" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B639">
+        <v>638</v>
+      </c>
+      <c r="C639" s="4">
+        <v>1.978</v>
+      </c>
+      <c r="D639" s="6">
+        <v>5</v>
+      </c>
+      <c r="E639" s="6">
+        <v>86</v>
+      </c>
+      <c r="F639" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A640" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B640">
+        <v>639</v>
+      </c>
+      <c r="C640" s="4">
+        <v>2.077</v>
+      </c>
+      <c r="D640" s="6">
+        <v>0</v>
+      </c>
+      <c r="E640" s="6">
+        <v>26</v>
+      </c>
+      <c r="F640" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A641" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B641">
+        <v>640</v>
+      </c>
+      <c r="C641" s="4">
+        <v>2.1080000000000001</v>
+      </c>
+      <c r="D641" s="6">
+        <v>0</v>
+      </c>
+      <c r="E641" s="6">
+        <v>44</v>
+      </c>
+      <c r="F641" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A642" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B642">
+        <v>641</v>
+      </c>
+      <c r="C642" s="4">
+        <v>2.0579999999999998</v>
+      </c>
+      <c r="D642" s="6">
+        <v>3</v>
+      </c>
+      <c r="E642" s="6">
+        <v>20</v>
+      </c>
+      <c r="F642" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A643" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B643">
+        <v>642</v>
+      </c>
+      <c r="C643" s="4">
+        <v>1.91</v>
+      </c>
+      <c r="D643" s="6">
+        <v>0</v>
+      </c>
+      <c r="E643" s="6">
+        <v>38</v>
+      </c>
+      <c r="F643" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A644" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B644">
+        <v>643</v>
+      </c>
+      <c r="C644" s="4">
+        <v>2.0539999999999998</v>
+      </c>
+      <c r="D644" s="6">
+        <v>3</v>
+      </c>
+      <c r="E644" s="6">
+        <v>47</v>
+      </c>
+      <c r="F644" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A645" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B645">
+        <v>644</v>
+      </c>
+      <c r="C645" s="4">
+        <v>1.8860000000000001</v>
+      </c>
+      <c r="D645" s="6">
+        <v>1</v>
+      </c>
+      <c r="E645" s="6">
+        <v>61</v>
+      </c>
+      <c r="F645" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A646" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B646">
+        <v>645</v>
+      </c>
+      <c r="C646" s="4">
+        <v>1.8740000000000001</v>
+      </c>
+      <c r="D646" s="6">
+        <v>0</v>
+      </c>
+      <c r="E646" s="6">
+        <v>47</v>
+      </c>
+      <c r="F646" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A647" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B647">
+        <v>646</v>
+      </c>
+      <c r="C647" s="4">
+        <v>2.0750000000000002</v>
+      </c>
+      <c r="D647" s="6">
+        <v>0</v>
+      </c>
+      <c r="E647" s="6">
+        <v>30</v>
+      </c>
+      <c r="F647" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A648" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B648">
+        <v>647</v>
+      </c>
+      <c r="C648" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="D648" s="6">
+        <v>0</v>
+      </c>
+      <c r="E648" s="6">
+        <v>32</v>
+      </c>
+      <c r="F648" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A649" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B649">
+        <v>648</v>
+      </c>
+      <c r="C649" s="4">
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="D649" s="6">
+        <v>0</v>
+      </c>
+      <c r="E649" s="6">
+        <v>72</v>
+      </c>
+      <c r="F649" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A650" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B650">
+        <v>649</v>
+      </c>
+      <c r="C650" s="4">
+        <v>1.972</v>
+      </c>
+      <c r="D650" s="6">
+        <v>8</v>
+      </c>
+      <c r="E650" s="6">
+        <v>30</v>
+      </c>
+      <c r="F650" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A651" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B651">
+        <v>650</v>
+      </c>
+      <c r="C651" s="4">
+        <v>2.1030000000000002</v>
+      </c>
+      <c r="D651" s="6">
+        <v>3</v>
+      </c>
+      <c r="E651" s="6">
+        <v>62</v>
+      </c>
+      <c r="F651" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A652" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B652">
+        <v>651</v>
+      </c>
+      <c r="C652" s="4">
+        <v>1.8090000000000002</v>
+      </c>
+      <c r="D652" s="6">
+        <v>0</v>
+      </c>
+      <c r="E652" s="6">
+        <v>34</v>
+      </c>
+      <c r="F652" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A653" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B653">
+        <v>652</v>
+      </c>
+      <c r="C653" s="4">
+        <v>1.704</v>
+      </c>
+      <c r="D653" s="6">
+        <v>5</v>
+      </c>
+      <c r="E653" s="6">
+        <v>62</v>
+      </c>
+      <c r="F653" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A654" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B654">
+        <v>653</v>
+      </c>
+      <c r="C654" s="4">
+        <v>1.88</v>
+      </c>
+      <c r="D654" s="6">
+        <v>7</v>
+      </c>
+      <c r="E654" s="6">
+        <v>49</v>
+      </c>
+      <c r="F654" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A655" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B655">
+        <v>654</v>
+      </c>
+      <c r="C655" s="4">
+        <v>1.9330000000000001</v>
+      </c>
+      <c r="D655" s="6">
+        <v>2</v>
+      </c>
+      <c r="E655" s="6">
+        <v>40</v>
+      </c>
+      <c r="F655" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A656" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B656">
+        <v>655</v>
+      </c>
+      <c r="C656" s="4">
+        <v>1.909</v>
+      </c>
+      <c r="D656" s="6">
+        <v>1</v>
+      </c>
+      <c r="E656" s="6">
+        <v>36</v>
+      </c>
+      <c r="F656" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A657" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B657">
+        <v>656</v>
+      </c>
+      <c r="C657" s="4">
+        <v>2.0630000000000002</v>
+      </c>
+      <c r="D657" s="6">
+        <v>7</v>
+      </c>
+      <c r="E657" s="6">
+        <v>15</v>
+      </c>
+      <c r="F657" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A658" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B658">
+        <v>657</v>
+      </c>
+      <c r="C658" s="4">
+        <v>1.708</v>
+      </c>
+      <c r="D658" s="6">
+        <v>8</v>
+      </c>
+      <c r="E658" s="6">
+        <v>45</v>
+      </c>
+      <c r="F658" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A659" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B659">
+        <v>658</v>
+      </c>
+      <c r="C659" s="4">
+        <v>1.411</v>
+      </c>
+      <c r="D659" s="6">
+        <v>1</v>
+      </c>
+      <c r="E659" s="6">
+        <v>39</v>
+      </c>
+      <c r="F659" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A660" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B660">
+        <v>659</v>
+      </c>
+      <c r="C660" s="4">
+        <v>1.427</v>
+      </c>
+      <c r="D660" s="6">
+        <v>3</v>
+      </c>
+      <c r="E660" s="6">
+        <v>28</v>
+      </c>
+      <c r="F660" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A661" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B661">
+        <v>660</v>
+      </c>
+      <c r="C661" s="4">
+        <v>1.532</v>
+      </c>
+      <c r="D661" s="6">
+        <v>1</v>
+      </c>
+      <c r="E661" s="6">
+        <v>35</v>
+      </c>
+      <c r="F661" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A662" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B662">
+        <v>661</v>
+      </c>
+      <c r="C662" s="4">
+        <v>1.883</v>
+      </c>
+      <c r="D662" s="6">
+        <v>0</v>
+      </c>
+      <c r="E662" s="6">
+        <v>81</v>
+      </c>
+      <c r="F662" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A663" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B663">
+        <v>662</v>
+      </c>
+      <c r="C663" s="4">
+        <v>1.893</v>
+      </c>
+      <c r="D663" s="6">
+        <v>0</v>
+      </c>
+      <c r="E663" s="6">
+        <v>73</v>
+      </c>
+      <c r="F663" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A664" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B664">
+        <v>663</v>
+      </c>
+      <c r="C664" s="4">
+        <v>2.169</v>
+      </c>
+      <c r="D664" s="6">
+        <v>2</v>
+      </c>
+      <c r="E664" s="6">
+        <v>58</v>
+      </c>
+      <c r="F664" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A665" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B665">
+        <v>664</v>
+      </c>
+      <c r="C665" s="4">
+        <v>2.3879999999999999</v>
+      </c>
+      <c r="D665" s="6">
+        <v>6</v>
+      </c>
+      <c r="E665" s="6">
+        <v>45</v>
+      </c>
+      <c r="F665" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A666" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B666">
+        <v>665</v>
+      </c>
+      <c r="C666" s="4">
+        <v>2.2789999999999999</v>
+      </c>
+      <c r="D666" s="6">
+        <v>0</v>
+      </c>
+      <c r="E666" s="6">
+        <v>51</v>
+      </c>
+      <c r="F666" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A667" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B667">
+        <v>666</v>
+      </c>
+      <c r="C667" s="4">
+        <v>2.4209999999999998</v>
+      </c>
+      <c r="D667" s="6">
+        <v>3</v>
+      </c>
+      <c r="E667" s="6">
+        <v>33</v>
+      </c>
+      <c r="F667" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A668" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B668">
+        <v>667</v>
+      </c>
+      <c r="C668" s="4">
+        <v>2.3010000000000002</v>
+      </c>
+      <c r="D668" s="6">
+        <v>3</v>
+      </c>
+      <c r="E668" s="6">
+        <v>50</v>
+      </c>
+      <c r="F668" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A669" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B669">
+        <v>668</v>
+      </c>
+      <c r="C669" s="4">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="D669" s="6">
+        <v>10</v>
+      </c>
+      <c r="E669" s="6">
+        <v>42</v>
+      </c>
+      <c r="F669" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A670" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B670">
+        <v>669</v>
+      </c>
+      <c r="C670" s="4">
+        <v>2.1120000000000001</v>
+      </c>
+      <c r="D670" s="6">
+        <v>10</v>
+      </c>
+      <c r="E670" s="6">
+        <v>43</v>
+      </c>
+      <c r="F670" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A671" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B671">
+        <v>670</v>
+      </c>
+      <c r="C671" s="4">
+        <v>2.085</v>
+      </c>
+      <c r="D671" s="6">
+        <v>6</v>
+      </c>
+      <c r="E671" s="6">
+        <v>60</v>
+      </c>
+      <c r="F671" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A672" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B672">
+        <v>671</v>
+      </c>
+      <c r="C672" s="4">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="D672" s="6">
+        <v>8</v>
+      </c>
+      <c r="E672" s="6">
+        <v>59</v>
+      </c>
+      <c r="F672" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A673" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B673">
+        <v>672</v>
+      </c>
+      <c r="C673" s="4">
+        <v>1.917</v>
+      </c>
+      <c r="D673" s="6">
+        <v>0</v>
+      </c>
+      <c r="E673" s="6">
+        <v>82</v>
+      </c>
+      <c r="F673" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A674" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B674">
+        <v>673</v>
+      </c>
+      <c r="C674" s="4">
+        <v>1.833</v>
+      </c>
+      <c r="D674" s="6">
+        <v>0</v>
+      </c>
+      <c r="E674" s="6">
+        <v>28</v>
+      </c>
+      <c r="F674" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A675" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B675">
+        <v>674</v>
+      </c>
+      <c r="C675" s="4">
+        <v>2.1139999999999999</v>
+      </c>
+      <c r="D675" s="6">
+        <v>0</v>
+      </c>
+      <c r="E675" s="6">
+        <v>38</v>
+      </c>
+      <c r="F675" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A676" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B676">
+        <v>675</v>
+      </c>
+      <c r="C676" s="4">
+        <v>2.1589999999999998</v>
+      </c>
+      <c r="D676" s="6">
+        <v>2</v>
+      </c>
+      <c r="E676" s="6">
+        <v>34</v>
+      </c>
+      <c r="F676" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A677" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B677">
+        <v>676</v>
+      </c>
+      <c r="C677" s="4">
+        <v>1.9140000000000001</v>
+      </c>
+      <c r="D677" s="6">
+        <v>3</v>
+      </c>
+      <c r="E677" s="6">
+        <v>53</v>
+      </c>
+      <c r="F677" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A678" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B678">
+        <v>677</v>
+      </c>
+      <c r="C678" s="4">
+        <v>2.3410000000000002</v>
+      </c>
+      <c r="D678" s="6">
+        <v>27</v>
+      </c>
+      <c r="E678" s="6">
+        <v>83</v>
+      </c>
+      <c r="F678" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A679" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B679">
+        <v>678</v>
+      </c>
+      <c r="C679" s="4">
+        <v>2.222</v>
+      </c>
+      <c r="D679" s="6">
+        <v>25</v>
+      </c>
+      <c r="E679" s="6">
+        <v>94</v>
+      </c>
+      <c r="F679" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A680" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B680">
+        <v>679</v>
+      </c>
+      <c r="C680" s="4">
+        <v>2.2690000000000001</v>
+      </c>
+      <c r="D680" s="6">
+        <v>3</v>
+      </c>
+      <c r="E680" s="6">
+        <v>95</v>
+      </c>
+      <c r="F680" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A681" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B681">
+        <v>680</v>
+      </c>
+      <c r="C681" s="4">
+        <v>2.0750000000000002</v>
+      </c>
+      <c r="D681" s="6">
+        <v>7</v>
+      </c>
+      <c r="E681" s="6">
+        <v>96</v>
+      </c>
+      <c r="F681" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A682" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B682">
+        <v>681</v>
+      </c>
+      <c r="C682" s="4">
+        <v>1.9390000000000001</v>
+      </c>
+      <c r="D682" s="6">
+        <v>0</v>
+      </c>
+      <c r="E682" s="6">
+        <v>71</v>
+      </c>
+      <c r="F682" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A683" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B683">
+        <v>682</v>
+      </c>
+      <c r="C683" s="4">
+        <v>1.804</v>
+      </c>
+      <c r="D683" s="6">
+        <v>0</v>
+      </c>
+      <c r="E683" s="6">
+        <v>79</v>
+      </c>
+      <c r="F683" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A684" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B684">
+        <v>683</v>
+      </c>
+      <c r="C684" s="4">
+        <v>2.0110000000000001</v>
+      </c>
+      <c r="D684" s="6">
+        <v>0</v>
+      </c>
+      <c r="E684" s="6">
+        <v>79</v>
+      </c>
+      <c r="F684" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A685" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B685">
+        <v>684</v>
+      </c>
+      <c r="C685" s="4">
+        <v>1.944</v>
+      </c>
+      <c r="D685" s="6">
+        <v>11</v>
+      </c>
+      <c r="E685" s="6">
+        <v>73</v>
+      </c>
+      <c r="F685" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A686" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B686">
+        <v>685</v>
+      </c>
+      <c r="C686" s="4">
+        <v>2.2509999999999999</v>
+      </c>
+      <c r="D686" s="6">
+        <v>13</v>
+      </c>
+      <c r="E686" s="6">
+        <v>75</v>
+      </c>
+      <c r="F686" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A687" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B687">
+        <v>686</v>
+      </c>
+      <c r="C687" s="4">
+        <v>1.887</v>
+      </c>
+      <c r="D687" s="6">
+        <v>0</v>
+      </c>
+      <c r="E687" s="6">
+        <v>79</v>
+      </c>
+      <c r="F687" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A688" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B688">
+        <v>687</v>
+      </c>
+      <c r="C688" s="4">
+        <v>1.9390000000000001</v>
+      </c>
+      <c r="D688" s="6">
+        <v>7</v>
+      </c>
+      <c r="E688" s="6">
+        <v>54</v>
+      </c>
+      <c r="F688" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A689" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B689">
+        <v>688</v>
+      </c>
+      <c r="C689" s="4">
+        <v>2.0449999999999999</v>
+      </c>
+      <c r="D689" s="6">
+        <v>5</v>
+      </c>
+      <c r="E689" s="6">
+        <v>46</v>
+      </c>
+      <c r="F689" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A690" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B690">
+        <v>689</v>
+      </c>
+      <c r="C690" s="4">
+        <v>2.0419999999999998</v>
+      </c>
+      <c r="D690" s="6">
+        <v>3</v>
+      </c>
+      <c r="E690" s="6">
+        <v>28</v>
+      </c>
+      <c r="F690" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A691" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B691">
+        <v>690</v>
+      </c>
+      <c r="C691" s="4">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="D691" s="6">
+        <v>5</v>
+      </c>
+      <c r="E691" s="6">
+        <v>40</v>
+      </c>
+      <c r="F691" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A692" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B692">
+        <v>691</v>
+      </c>
+      <c r="C692" s="4">
+        <v>2.0390000000000001</v>
+      </c>
+      <c r="D692" s="6">
+        <v>5</v>
+      </c>
+      <c r="E692" s="6">
+        <v>43</v>
+      </c>
+      <c r="F692" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A693" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B693">
+        <v>692</v>
+      </c>
+      <c r="C693" s="4">
+        <v>2.1789999999999998</v>
+      </c>
+      <c r="D693" s="6">
+        <v>2</v>
+      </c>
+      <c r="E693" s="6">
+        <v>79</v>
+      </c>
+      <c r="F693" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A694" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B694">
+        <v>693</v>
+      </c>
+      <c r="C694" s="4">
+        <v>2.145</v>
+      </c>
+      <c r="D694" s="6">
+        <v>6</v>
+      </c>
+      <c r="E694" s="6">
+        <v>70</v>
+      </c>
+      <c r="F694" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A695" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B695">
+        <v>694</v>
+      </c>
+      <c r="C695" s="4">
+        <v>2.173</v>
+      </c>
+      <c r="D695" s="6">
+        <v>4</v>
+      </c>
+      <c r="E695" s="6">
+        <v>73</v>
+      </c>
+      <c r="F695" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A696" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B696">
+        <v>695</v>
+      </c>
+      <c r="C696" s="4">
+        <v>2.6120000000000001</v>
+      </c>
+      <c r="D696" s="6">
+        <v>7</v>
+      </c>
+      <c r="E696" s="6">
+        <v>44</v>
+      </c>
+      <c r="F696" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A697" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B697">
+        <v>696</v>
+      </c>
+      <c r="C697" s="4">
+        <v>2.4420000000000002</v>
+      </c>
+      <c r="D697" s="6">
+        <v>7</v>
+      </c>
+      <c r="E697" s="6">
+        <v>31</v>
+      </c>
+      <c r="F697" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A698" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B698">
+        <v>697</v>
+      </c>
+      <c r="C698" s="4">
+        <v>2.395</v>
+      </c>
+      <c r="D698" s="6">
+        <v>11</v>
+      </c>
+      <c r="E698" s="6">
+        <v>44</v>
+      </c>
+      <c r="F698" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A699" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B699">
+        <v>698</v>
+      </c>
+      <c r="C699" s="4">
+        <v>2.262</v>
+      </c>
+      <c r="D699" s="6">
+        <v>6</v>
+      </c>
+      <c r="E699" s="6">
+        <v>31</v>
+      </c>
+      <c r="F699" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A700" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B700">
+        <v>699</v>
+      </c>
+      <c r="C700" s="4">
+        <v>2.4239999999999999</v>
+      </c>
+      <c r="D700" s="6">
+        <v>0</v>
+      </c>
+      <c r="E700" s="6">
+        <v>34</v>
+      </c>
+      <c r="F700" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A701" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B701">
+        <v>700</v>
+      </c>
+      <c r="C701" s="4">
+        <v>2.0910000000000002</v>
+      </c>
+      <c r="D701" s="6">
+        <v>0</v>
+      </c>
+      <c r="E701" s="6">
+        <v>56</v>
+      </c>
+      <c r="F701" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A702" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B702">
+        <v>701</v>
+      </c>
+      <c r="C702" s="4">
+        <v>1.9140000000000001</v>
+      </c>
+      <c r="D702" s="6">
+        <v>0</v>
+      </c>
+      <c r="E702" s="6">
+        <v>91</v>
+      </c>
+      <c r="F702" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A703" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B703">
+        <v>702</v>
+      </c>
+      <c r="C703" s="4">
+        <v>2.0470000000000002</v>
+      </c>
+      <c r="D703" s="6">
+        <v>0</v>
+      </c>
+      <c r="E703" s="6">
+        <v>92</v>
+      </c>
+      <c r="F703" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A704" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B704">
+        <v>703</v>
+      </c>
+      <c r="C704" s="4">
+        <v>2.1629999999999998</v>
+      </c>
+      <c r="D704" s="6">
+        <v>16</v>
+      </c>
+      <c r="E704" s="6">
+        <v>58</v>
+      </c>
+      <c r="F704" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A705" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B705">
+        <v>704</v>
+      </c>
+      <c r="C705" s="4">
+        <v>2.157</v>
+      </c>
+      <c r="D705" s="6">
+        <v>27</v>
+      </c>
+      <c r="E705" s="6">
+        <v>43</v>
+      </c>
+      <c r="F705" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A706" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B706">
+        <v>705</v>
+      </c>
+      <c r="C706" s="4">
+        <v>2.161</v>
+      </c>
+      <c r="D706" s="6">
+        <v>29</v>
+      </c>
+      <c r="E706" s="6">
+        <v>33</v>
+      </c>
+      <c r="F706" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A707" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B707">
+        <v>706</v>
+      </c>
+      <c r="C707" s="4">
+        <v>1.96</v>
+      </c>
+      <c r="D707" s="6">
+        <v>20</v>
+      </c>
+      <c r="E707" s="6">
+        <v>33</v>
+      </c>
+      <c r="F707" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A708" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B708">
+        <v>707</v>
+      </c>
+      <c r="C708" s="4">
+        <v>1.2370000000000001</v>
+      </c>
+      <c r="D708" s="6">
+        <v>8</v>
+      </c>
+      <c r="E708" s="6">
+        <v>84</v>
+      </c>
+      <c r="F708" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A709" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B709">
+        <v>708</v>
+      </c>
+      <c r="C709" s="4">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="D709" s="6">
+        <v>17</v>
+      </c>
+      <c r="E709" s="6">
+        <v>88</v>
+      </c>
+      <c r="F709" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A710" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B710">
+        <v>709</v>
+      </c>
+      <c r="C710" s="4">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="D710" s="6">
+        <v>7</v>
+      </c>
+      <c r="E710" s="6">
+        <v>93</v>
+      </c>
+      <c r="F710" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A711" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B711">
+        <v>710</v>
+      </c>
+      <c r="C711" s="4">
+        <v>1.391</v>
+      </c>
+      <c r="D711" s="6">
+        <v>13</v>
+      </c>
+      <c r="E711" s="6">
+        <v>86</v>
+      </c>
+      <c r="F711" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A712" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B712">
+        <v>711</v>
+      </c>
+      <c r="C712" s="4">
+        <v>1.4570000000000001</v>
+      </c>
+      <c r="D712" s="6">
+        <v>0</v>
+      </c>
+      <c r="E712" s="6">
+        <v>32</v>
+      </c>
+      <c r="F712" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A713" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B713">
+        <v>712</v>
+      </c>
+      <c r="C713" s="4">
+        <v>1.6179999999999999</v>
+      </c>
+      <c r="D713" s="6">
+        <v>13</v>
+      </c>
+      <c r="E713" s="6">
+        <v>91</v>
+      </c>
+      <c r="F713" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A714" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B714">
+        <v>713</v>
+      </c>
+      <c r="C714" s="4">
+        <v>1.587</v>
+      </c>
+      <c r="D714" s="6">
+        <v>14</v>
+      </c>
+      <c r="E714" s="6">
+        <v>79</v>
+      </c>
+      <c r="F714" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A715" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B715">
+        <v>714</v>
+      </c>
+      <c r="C715" s="4">
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="D715" s="6">
+        <v>1</v>
+      </c>
+      <c r="E715" s="6">
+        <v>86</v>
+      </c>
+      <c r="F715" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A716" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B716">
+        <v>715</v>
+      </c>
+      <c r="C716" s="4">
+        <v>1.53</v>
+      </c>
+      <c r="D716" s="6">
+        <v>7</v>
+      </c>
+      <c r="E716" s="6">
+        <v>71</v>
+      </c>
+      <c r="F716" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A717" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B717">
+        <v>716</v>
+      </c>
+      <c r="C717" s="4">
+        <v>1.2530000000000001</v>
+      </c>
+      <c r="D717" s="6">
+        <v>3</v>
+      </c>
+      <c r="E717" s="6">
+        <v>81</v>
+      </c>
+      <c r="F717" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A718" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B718">
+        <v>717</v>
+      </c>
+      <c r="C718" s="4">
+        <v>1.5169999999999999</v>
+      </c>
+      <c r="D718" s="6">
+        <v>4</v>
+      </c>
+      <c r="E718" s="6">
+        <v>76</v>
+      </c>
+      <c r="F718" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A719" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B719">
+        <v>718</v>
+      </c>
+      <c r="C719" s="4">
+        <v>1.58</v>
+      </c>
+      <c r="D719" s="6">
+        <v>9</v>
+      </c>
+      <c r="E719" s="6">
+        <v>76</v>
+      </c>
+      <c r="F719" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A720" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B720">
+        <v>719</v>
+      </c>
+      <c r="C720" s="4">
+        <v>1.528</v>
+      </c>
+      <c r="D720" s="6">
+        <v>14</v>
+      </c>
+      <c r="E720" s="6">
+        <v>91</v>
+      </c>
+      <c r="F720" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A721" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B721">
+        <v>720</v>
+      </c>
+      <c r="C721" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="D721" s="6">
+        <v>7</v>
+      </c>
+      <c r="E721" s="6">
+        <v>89</v>
+      </c>
+      <c r="F721" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A722" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B722">
+        <v>721</v>
+      </c>
+      <c r="C722" s="4">
+        <v>1.345</v>
+      </c>
+      <c r="D722" s="6">
+        <v>12</v>
+      </c>
+      <c r="E722" s="6">
+        <v>89</v>
+      </c>
+      <c r="F722" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A723" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B723">
+        <v>722</v>
+      </c>
+      <c r="C723" s="4">
+        <v>1.518</v>
+      </c>
+      <c r="D723" s="6">
+        <v>15</v>
+      </c>
+      <c r="E723" s="6">
+        <v>63</v>
+      </c>
+      <c r="F723" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A724" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B724">
+        <v>723</v>
+      </c>
+      <c r="C724" s="4">
+        <v>1.623</v>
+      </c>
+      <c r="D724" s="6">
+        <v>10</v>
+      </c>
+      <c r="E724" s="6">
+        <v>59</v>
+      </c>
+      <c r="F724" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A725" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B725">
+        <v>724</v>
+      </c>
+      <c r="C725" s="4">
+        <v>1.4830000000000001</v>
+      </c>
+      <c r="D725" s="6">
+        <v>15</v>
+      </c>
+      <c r="E725" s="6">
+        <v>52</v>
+      </c>
+      <c r="F725" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A726" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B726">
+        <v>725</v>
+      </c>
+      <c r="C726" s="4">
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="D726" s="6">
+        <v>7</v>
+      </c>
+      <c r="E726" s="6">
+        <v>70</v>
+      </c>
+      <c r="F726" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A727" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B727">
+        <v>726</v>
+      </c>
+      <c r="C727" s="4">
+        <v>1.671</v>
+      </c>
+      <c r="D727" s="6">
+        <v>9</v>
+      </c>
+      <c r="E727" s="6">
+        <v>78</v>
+      </c>
+      <c r="F727" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A728" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B728">
+        <v>727</v>
+      </c>
+      <c r="C728" s="4">
+        <v>1.179</v>
+      </c>
+      <c r="D728" s="6">
+        <v>2</v>
+      </c>
+      <c r="E728" s="6">
+        <v>80</v>
+      </c>
+      <c r="F728" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A729" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B729">
+        <v>728</v>
+      </c>
+      <c r="C729" s="4">
+        <v>1.296</v>
+      </c>
+      <c r="D729" s="6">
+        <v>0</v>
+      </c>
+      <c r="E729" s="6">
+        <v>87</v>
+      </c>
+      <c r="F729" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A730" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B730">
+        <v>729</v>
+      </c>
+      <c r="C730" s="4">
+        <v>1.3460000000000001</v>
+      </c>
+      <c r="D730" s="6">
+        <v>12</v>
+      </c>
+      <c r="E730" s="6">
+        <v>90</v>
+      </c>
+      <c r="F730" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A731" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B731">
+        <v>730</v>
+      </c>
+      <c r="C731" s="4">
+        <v>1.3559999999999999</v>
+      </c>
+      <c r="D731" s="6">
+        <v>12</v>
+      </c>
+      <c r="E731" s="6">
+        <v>87</v>
+      </c>
+      <c r="F731" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A732" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B732">
+        <v>731</v>
+      </c>
+      <c r="C732" s="4">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="D732" s="6">
+        <v>20</v>
+      </c>
+      <c r="E732" s="6">
+        <v>88</v>
+      </c>
+      <c r="F732" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A733" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B733">
+        <v>732</v>
+      </c>
+      <c r="C733" s="4">
+        <v>1.115</v>
+      </c>
+      <c r="D733" s="6">
+        <v>10</v>
+      </c>
+      <c r="E733" s="6">
+        <v>80</v>
+      </c>
+      <c r="F733" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A734" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B734">
+        <v>733</v>
+      </c>
+      <c r="C734" s="4">
+        <v>1.306</v>
+      </c>
+      <c r="D734" s="6">
+        <v>18</v>
+      </c>
+      <c r="E734" s="6">
+        <v>75</v>
+      </c>
+      <c r="F734" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A735" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B735">
+        <v>734</v>
+      </c>
+      <c r="C735" s="4">
+        <v>1</v>
+      </c>
+      <c r="D735" s="6">
+        <v>0</v>
+      </c>
+      <c r="E735" s="6">
+        <v>88</v>
+      </c>
+      <c r="F735" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A736" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B736">
+        <v>735</v>
+      </c>
+      <c r="C736" s="4">
+        <v>1.266</v>
+      </c>
+      <c r="D736" s="6">
+        <v>2</v>
+      </c>
+      <c r="E736" s="6">
+        <v>87</v>
+      </c>
+      <c r="F736" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A737" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B737">
+        <v>736</v>
+      </c>
+      <c r="C737" s="4">
+        <v>1.6990000000000001</v>
+      </c>
+      <c r="D737" s="6">
+        <v>0</v>
+      </c>
+      <c r="E737" s="6">
+        <v>68</v>
+      </c>
+      <c r="F737" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A738" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B738">
+        <v>737</v>
+      </c>
+      <c r="C738" s="4">
+        <v>1.014</v>
+      </c>
+      <c r="D738" s="6">
+        <v>0</v>
+      </c>
+      <c r="E738" s="6">
+        <v>90</v>
+      </c>
+      <c r="F738" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A739" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B739">
+        <v>738</v>
+      </c>
+      <c r="C739" s="4">
+        <v>1.633</v>
+      </c>
+      <c r="D739" s="6">
+        <v>15</v>
+      </c>
+      <c r="E739" s="6">
+        <v>68</v>
+      </c>
+      <c r="F739" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A740" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B740">
+        <v>739</v>
+      </c>
+      <c r="C740" s="4">
+        <v>1.5740000000000001</v>
+      </c>
+      <c r="D740" s="6">
+        <v>9</v>
+      </c>
+      <c r="E740" s="6">
+        <v>74</v>
+      </c>
+      <c r="F740" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A741" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B741">
+        <v>740</v>
+      </c>
+      <c r="C741" s="4">
+        <v>1.605</v>
+      </c>
+      <c r="D741" s="6">
+        <v>6</v>
+      </c>
+      <c r="E741" s="6">
+        <v>83</v>
+      </c>
+      <c r="F741" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A742" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B742">
+        <v>741</v>
+      </c>
+      <c r="C742" s="4">
+        <v>1.508</v>
+      </c>
+      <c r="D742" s="6">
+        <v>12</v>
+      </c>
+      <c r="E742" s="6">
+        <v>72</v>
+      </c>
+      <c r="F742" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A743" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B743">
+        <v>742</v>
+      </c>
+      <c r="C743" s="4">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="D743" s="6">
+        <v>0</v>
+      </c>
+      <c r="E743" s="6">
+        <v>85</v>
+      </c>
+      <c r="F743" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A744" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B744">
+        <v>743</v>
+      </c>
+      <c r="C744" s="4">
+        <v>1.6280000000000001</v>
+      </c>
+      <c r="D744" s="6">
+        <v>10</v>
+      </c>
+      <c r="E744" s="6">
+        <v>62</v>
+      </c>
+      <c r="F744" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A745" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B745">
+        <v>744</v>
+      </c>
+      <c r="C745" s="4">
+        <v>1.776</v>
+      </c>
+      <c r="D745" s="6">
+        <v>6</v>
+      </c>
+      <c r="E745" s="6">
+        <v>55</v>
+      </c>
+      <c r="F745" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A746" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B746">
+        <v>745</v>
+      </c>
+      <c r="C746" s="4">
+        <v>1.677</v>
+      </c>
+      <c r="D746" s="6">
+        <v>11</v>
+      </c>
+      <c r="E746" s="6">
+        <v>49</v>
+      </c>
+      <c r="F746" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A747" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B747">
+        <v>746</v>
+      </c>
+      <c r="C747" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="D747" s="6">
+        <v>1</v>
+      </c>
+      <c r="E747" s="6">
+        <v>29</v>
+      </c>
+      <c r="F747" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A748" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B748">
+        <v>747</v>
+      </c>
+      <c r="C748" s="4">
+        <v>1.419</v>
+      </c>
+      <c r="D748" s="6">
+        <v>0</v>
+      </c>
+      <c r="E748" s="6">
+        <v>36</v>
+      </c>
+      <c r="F748" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A749" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B749">
+        <v>748</v>
+      </c>
+      <c r="C749" s="4">
+        <v>1.512</v>
+      </c>
+      <c r="D749" s="6">
+        <v>3</v>
+      </c>
+      <c r="E749" s="6">
+        <v>69</v>
+      </c>
+      <c r="F749" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A750" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B750">
+        <v>749</v>
+      </c>
+      <c r="C750" s="4">
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="D750" s="6">
+        <v>0</v>
+      </c>
+      <c r="E750" s="6">
+        <v>95</v>
+      </c>
+      <c r="F750" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A751" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B751">
+        <v>750</v>
+      </c>
+      <c r="C751" s="4">
+        <v>1.5660000000000001</v>
+      </c>
+      <c r="D751" s="6">
+        <v>0</v>
+      </c>
+      <c r="E751" s="6">
+        <v>96</v>
+      </c>
+      <c r="F751" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A752" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B752">
+        <v>751</v>
+      </c>
+      <c r="C752" s="4">
+        <v>1.6950000000000001</v>
+      </c>
+      <c r="D752" s="6">
+        <v>0</v>
+      </c>
+      <c r="E752" s="6">
+        <v>95</v>
+      </c>
+      <c r="F752" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A753" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B753">
+        <v>752</v>
+      </c>
+      <c r="C753" s="4">
+        <v>1.502</v>
+      </c>
+      <c r="D753" s="6">
+        <v>1</v>
+      </c>
+      <c r="E753" s="6">
+        <v>48</v>
+      </c>
+      <c r="F753" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A754" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B754">
+        <v>753</v>
+      </c>
+      <c r="C754" s="4">
+        <v>1.5009999999999999</v>
+      </c>
+      <c r="D754" s="6">
+        <v>2</v>
+      </c>
+      <c r="E754" s="6">
+        <v>68</v>
+      </c>
+      <c r="F754" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A755" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B755">
+        <v>754</v>
+      </c>
+      <c r="C755" s="4">
+        <v>1.363</v>
+      </c>
+      <c r="D755" s="6">
+        <v>3</v>
+      </c>
+      <c r="E755" s="6">
+        <v>42</v>
+      </c>
+      <c r="F755" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A756" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B756">
+        <v>755</v>
+      </c>
+      <c r="C756" s="4">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="D756" s="6">
+        <v>1</v>
+      </c>
+      <c r="E756" s="6">
+        <v>95</v>
+      </c>
+      <c r="F756" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A757" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B757">
+        <v>756</v>
+      </c>
+      <c r="C757" s="4">
+        <v>1.4410000000000001</v>
+      </c>
+      <c r="D757" s="6">
+        <v>6</v>
+      </c>
+      <c r="E757" s="6">
+        <v>94</v>
+      </c>
+      <c r="F757" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A758" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B758">
+        <v>757</v>
+      </c>
+      <c r="C758" s="4">
+        <v>1.9020000000000001</v>
+      </c>
+      <c r="D758" s="6">
+        <v>19</v>
+      </c>
+      <c r="E758" s="6">
+        <v>76</v>
+      </c>
+      <c r="F758" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A759" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B759">
+        <v>758</v>
+      </c>
+      <c r="C759" s="4">
+        <v>1.752</v>
+      </c>
+      <c r="D759" s="6">
+        <v>12</v>
+      </c>
+      <c r="E759" s="6">
+        <v>90</v>
+      </c>
+      <c r="F759" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A760" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B760">
+        <v>759</v>
+      </c>
+      <c r="C760" s="4">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="D760" s="6">
+        <v>13</v>
+      </c>
+      <c r="E760" s="6">
+        <v>79</v>
+      </c>
+      <c r="F760" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A761" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B761">
+        <v>760</v>
+      </c>
+      <c r="C761" s="4">
+        <v>1.018</v>
+      </c>
+      <c r="D761" s="6">
+        <v>0</v>
+      </c>
+      <c r="E761" s="6">
+        <v>85</v>
+      </c>
+      <c r="F761" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A762" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B762">
+        <v>761</v>
+      </c>
+      <c r="C762" s="4">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="D762" s="6">
+        <v>16</v>
+      </c>
+      <c r="E762" s="6">
+        <v>33</v>
+      </c>
+      <c r="F762" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A763" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B763">
+        <v>762</v>
+      </c>
+      <c r="C763" s="4">
+        <v>1.4060000000000001</v>
+      </c>
+      <c r="D763" s="6">
+        <v>0</v>
+      </c>
+      <c r="E763" s="6">
+        <v>86</v>
+      </c>
+      <c r="F763" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A764" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B764">
+        <v>763</v>
+      </c>
+      <c r="C764" s="4">
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="D764" s="6">
+        <v>0</v>
+      </c>
+      <c r="E764" s="6">
+        <v>59</v>
+      </c>
+      <c r="F764" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A765" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B765">
+        <v>764</v>
+      </c>
+      <c r="C765" s="4">
+        <v>1.4690000000000001</v>
+      </c>
+      <c r="D765" s="6">
+        <v>3</v>
+      </c>
+      <c r="E765" s="6">
+        <v>87</v>
+      </c>
+      <c r="F765" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A766" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B766">
+        <v>765</v>
+      </c>
+      <c r="C766" s="4">
+        <v>1.194</v>
+      </c>
+      <c r="D766" s="6">
+        <v>6</v>
+      </c>
+      <c r="E766" s="6">
+        <v>89</v>
+      </c>
+      <c r="F766" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A767" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B767">
+        <v>766</v>
+      </c>
+      <c r="C767" s="4">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="D767" s="6">
+        <v>1</v>
+      </c>
+      <c r="E767" s="6">
+        <v>79</v>
+      </c>
+      <c r="F767" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A768" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B768">
+        <v>767</v>
+      </c>
+      <c r="C768" s="4">
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="D768" s="6">
+        <v>12</v>
+      </c>
+      <c r="E768" s="6">
+        <v>61</v>
+      </c>
+      <c r="F768" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A769" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B769">
+        <v>768</v>
+      </c>
+      <c r="C769" s="4">
+        <v>1.552</v>
+      </c>
+      <c r="D769" s="6">
+        <v>11</v>
+      </c>
+      <c r="E769" s="6">
+        <v>80</v>
+      </c>
+      <c r="F769" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A770" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B770">
+        <v>769</v>
+      </c>
+      <c r="C770" s="4">
+        <v>1.804</v>
+      </c>
+      <c r="D770" s="6">
+        <v>0</v>
+      </c>
+      <c r="E770" s="6">
+        <v>42</v>
+      </c>
+      <c r="F770" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A771" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B771">
+        <v>770</v>
+      </c>
+      <c r="C771" s="4">
+        <v>1.9609999999999999</v>
+      </c>
+      <c r="D771" s="6">
+        <v>0</v>
+      </c>
+      <c r="E771" s="6">
+        <v>42</v>
+      </c>
+      <c r="F771" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A772" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B772">
+        <v>771</v>
+      </c>
+      <c r="C772" s="4">
+        <v>1.867</v>
+      </c>
+      <c r="D772" s="6">
+        <v>20</v>
+      </c>
+      <c r="E772" s="6">
+        <v>64</v>
+      </c>
+      <c r="F772" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A773" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B773">
+        <v>772</v>
+      </c>
+      <c r="C773" s="4">
+        <v>1.823</v>
+      </c>
+      <c r="D773" s="6">
+        <v>5</v>
+      </c>
+      <c r="E773" s="6">
+        <v>58</v>
+      </c>
+      <c r="F773" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A774" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B774">
+        <v>773</v>
+      </c>
+      <c r="C774" s="4">
+        <v>1.7789999999999999</v>
+      </c>
+      <c r="D774" s="6">
+        <v>8</v>
+      </c>
+      <c r="E774" s="6">
+        <v>67</v>
+      </c>
+      <c r="F774" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A775" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B775">
+        <v>774</v>
+      </c>
+      <c r="C775" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="D775" s="6">
+        <v>0</v>
+      </c>
+      <c r="E775" s="6">
+        <v>51</v>
+      </c>
+      <c r="F775" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A776" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B776">
+        <v>775</v>
+      </c>
+      <c r="C776" s="4">
+        <v>1.9510000000000001</v>
+      </c>
+      <c r="D776" s="6">
+        <v>0</v>
+      </c>
+      <c r="E776" s="6">
+        <v>70</v>
+      </c>
+      <c r="F776" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A777" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B777">
+        <v>776</v>
+      </c>
+      <c r="C777" s="4">
+        <v>1.8740000000000001</v>
+      </c>
+      <c r="D777" s="6">
+        <v>5</v>
+      </c>
+      <c r="E777" s="6">
+        <v>59</v>
+      </c>
+      <c r="F777" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A778" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B778">
+        <v>777</v>
+      </c>
+      <c r="C778" s="4">
+        <v>2.1390000000000002</v>
+      </c>
+      <c r="D778" s="6">
+        <v>8</v>
+      </c>
+      <c r="E778" s="6">
+        <v>25</v>
+      </c>
+      <c r="F778" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A779" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B779">
+        <v>778</v>
+      </c>
+      <c r="C779" s="4">
+        <v>2.1030000000000002</v>
+      </c>
+      <c r="D779" s="6">
+        <v>0</v>
+      </c>
+      <c r="E779" s="6">
+        <v>45</v>
+      </c>
+      <c r="F779" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A780" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B780">
+        <v>779</v>
+      </c>
+      <c r="C780" s="4">
+        <v>2.1390000000000002</v>
+      </c>
+      <c r="D780" s="6">
+        <v>7</v>
+      </c>
+      <c r="E780" s="6">
+        <v>45</v>
+      </c>
+      <c r="F780" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A781" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B781">
+        <v>780</v>
+      </c>
+      <c r="C781" s="4">
+        <v>2.08</v>
+      </c>
+      <c r="D781" s="6">
+        <v>13</v>
+      </c>
+      <c r="E781" s="6">
+        <v>42</v>
+      </c>
+      <c r="F781" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A782" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B782">
+        <v>781</v>
+      </c>
+      <c r="C782" s="4">
+        <v>1.9969999999999999</v>
+      </c>
+      <c r="D782" s="6">
+        <v>1</v>
+      </c>
+      <c r="E782" s="6">
+        <v>45</v>
+      </c>
+      <c r="F782" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A783" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B783">
+        <v>782</v>
+      </c>
+      <c r="C783" s="4">
+        <v>1.611</v>
+      </c>
+      <c r="D783" s="6">
+        <v>9</v>
+      </c>
+      <c r="E783" s="6">
+        <v>51</v>
+      </c>
+      <c r="F783" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A784" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B784">
+        <v>783</v>
+      </c>
+      <c r="C784" s="4">
+        <v>1.585</v>
+      </c>
+      <c r="D784" s="6">
+        <v>9</v>
+      </c>
+      <c r="E784" s="6">
+        <v>38</v>
+      </c>
+      <c r="F784" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A785" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B785">
+        <v>784</v>
+      </c>
+      <c r="C785" s="4">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="D785" s="6">
+        <v>16</v>
+      </c>
+      <c r="E785" s="6">
+        <v>54</v>
+      </c>
+      <c r="F785" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A786" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B786">
+        <v>785</v>
+      </c>
+      <c r="C786" s="4">
+        <v>1.42</v>
+      </c>
+      <c r="D786" s="6">
+        <v>0</v>
+      </c>
+      <c r="E786" s="6">
+        <v>43</v>
+      </c>
+      <c r="F786" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A787" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B787">
+        <v>786</v>
+      </c>
+      <c r="C787" s="4">
+        <v>1.722</v>
+      </c>
+      <c r="D787" s="6">
+        <v>0</v>
+      </c>
+      <c r="E787" s="6">
+        <v>64</v>
+      </c>
+      <c r="F787" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A788" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B788">
+        <v>787</v>
+      </c>
+      <c r="C788" s="4">
+        <v>1.6440000000000001</v>
+      </c>
+      <c r="D788" s="6">
+        <v>4</v>
+      </c>
+      <c r="E788" s="6">
+        <v>51</v>
+      </c>
+      <c r="F788" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A789" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B789">
+        <v>788</v>
+      </c>
+      <c r="C789" s="4">
+        <v>1.6419999999999999</v>
+      </c>
+      <c r="D789" s="6">
+        <v>7</v>
+      </c>
+      <c r="E789" s="6">
+        <v>48</v>
+      </c>
+      <c r="F789" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A790" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B790">
+        <v>789</v>
+      </c>
+      <c r="C790" s="4">
+        <v>1.522</v>
+      </c>
+      <c r="D790" s="6">
+        <v>4</v>
+      </c>
+      <c r="E790" s="6">
+        <v>26</v>
+      </c>
+      <c r="F790" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A791" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B791">
+        <v>790</v>
+      </c>
+      <c r="C791" s="4">
+        <v>1.5129999999999999</v>
+      </c>
+      <c r="D791" s="6">
+        <v>13</v>
+      </c>
+      <c r="E791" s="6">
+        <v>91</v>
+      </c>
+      <c r="F791" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A792" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B792">
+        <v>791</v>
+      </c>
+      <c r="C792" s="4">
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="D792" s="6">
+        <v>7</v>
+      </c>
+      <c r="E792" s="6">
+        <v>71</v>
+      </c>
+      <c r="F792" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A793" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B793">
+        <v>792</v>
+      </c>
+      <c r="C793" s="4">
+        <v>1.391</v>
+      </c>
+      <c r="D793" s="6">
+        <v>28</v>
+      </c>
+      <c r="E793" s="6">
+        <v>72</v>
+      </c>
+      <c r="F793" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A794" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B794">
+        <v>793</v>
+      </c>
+      <c r="C794" s="4">
+        <v>1.649</v>
+      </c>
+      <c r="D794" s="6">
+        <v>12</v>
+      </c>
+      <c r="E794" s="6">
+        <v>46</v>
+      </c>
+      <c r="F794" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A795" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B795">
+        <v>794</v>
+      </c>
+      <c r="C795" s="4">
+        <v>1.484</v>
+      </c>
+      <c r="D795" s="6">
+        <v>19</v>
+      </c>
+      <c r="E795" s="6">
+        <v>80</v>
+      </c>
+      <c r="F795" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A796" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B796">
+        <v>795</v>
+      </c>
+      <c r="C796" s="4">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="D796" s="6">
+        <v>32</v>
+      </c>
+      <c r="E796" s="6">
+        <v>82</v>
+      </c>
+      <c r="F796" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A797" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B797">
+        <v>796</v>
+      </c>
+      <c r="C797" s="4">
+        <v>1.619</v>
+      </c>
+      <c r="D797" s="6">
+        <v>0</v>
+      </c>
+      <c r="E797" s="6">
+        <v>81</v>
+      </c>
+      <c r="F797" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A798" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B798">
+        <v>797</v>
+      </c>
+      <c r="C798" s="4">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="D798" s="6">
+        <v>0</v>
+      </c>
+      <c r="E798" s="6">
+        <v>78</v>
+      </c>
+      <c r="F798" s="6">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C200BC-6528-46A7-A6A0-E43EC41A5AC2}">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43838</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.776</v>
+      </c>
+      <c r="D2" s="7">
+        <v>90</v>
+      </c>
+      <c r="E2" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43846</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.792</v>
+      </c>
+      <c r="D3" s="7">
+        <v>91</v>
+      </c>
+      <c r="E3" s="7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2.177</v>
+      </c>
+      <c r="D4" s="7">
+        <v>98</v>
+      </c>
+      <c r="E4" s="7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2.0830000000000002</v>
+      </c>
+      <c r="D5" s="7">
+        <v>98</v>
+      </c>
+      <c r="E5" s="7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.827</v>
+      </c>
+      <c r="D6" s="7">
+        <v>94</v>
+      </c>
+      <c r="E6" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B7" s="7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.78</v>
+      </c>
+      <c r="D7" s="7">
+        <v>97</v>
+      </c>
+      <c r="E7" s="7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B8" s="7">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.7389999999999999</v>
+      </c>
+      <c r="D8" s="7">
+        <v>84</v>
+      </c>
+      <c r="E8" s="7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B9" s="7">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2.9260000000000002</v>
+      </c>
+      <c r="D9" s="7">
+        <v>90</v>
+      </c>
+      <c r="E9" s="7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B10" s="7">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2.851</v>
+      </c>
+      <c r="D10" s="7">
+        <v>98</v>
+      </c>
+      <c r="E10" s="7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B11" s="7">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2.7280000000000002</v>
+      </c>
+      <c r="D11" s="7">
+        <v>94</v>
+      </c>
+      <c r="E11" s="7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B12" s="7">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2.355</v>
+      </c>
+      <c r="D12" s="7">
+        <v>93</v>
+      </c>
+      <c r="E12" s="7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B13" s="7">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2.5219999999999998</v>
+      </c>
+      <c r="D13" s="7">
+        <v>94</v>
+      </c>
+      <c r="E13" s="7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B14" s="7">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2.4809999999999999</v>
+      </c>
+      <c r="D14" s="7">
+        <v>94</v>
+      </c>
+      <c r="E14" s="7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B15" s="7">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2.9670000000000001</v>
+      </c>
+      <c r="D15" s="7">
+        <v>90</v>
+      </c>
+      <c r="E15" s="7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B16" s="7">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3.2360000000000002</v>
+      </c>
+      <c r="D16" s="7">
+        <v>96</v>
+      </c>
+      <c r="E16" s="7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B17" s="7">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2.911</v>
+      </c>
+      <c r="D17" s="7">
+        <v>95</v>
+      </c>
+      <c r="E17" s="7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B18" s="7">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3.0840000000000001</v>
+      </c>
+      <c r="D18" s="7">
+        <v>90</v>
+      </c>
+      <c r="E18" s="7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B19" s="7">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2.431</v>
+      </c>
+      <c r="D19" s="7">
+        <v>93</v>
+      </c>
+      <c r="E19" s="7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B20" s="7">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1.9550000000000001</v>
+      </c>
+      <c r="D20" s="7">
+        <v>95</v>
+      </c>
+      <c r="E20" s="7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B21" s="7">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2.7730000000000001</v>
+      </c>
+      <c r="D21" s="7">
+        <v>66</v>
+      </c>
+      <c r="E21" s="7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B22" s="7">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2.2650000000000001</v>
+      </c>
+      <c r="D22" s="7">
+        <v>88</v>
+      </c>
+      <c r="E22" s="7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B23" s="7">
+        <v>22</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3.202</v>
+      </c>
+      <c r="D23" s="7">
+        <v>93</v>
+      </c>
+      <c r="E23" s="7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B24" s="7">
+        <v>23</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2.8120000000000003</v>
+      </c>
+      <c r="D24" s="7">
+        <v>81</v>
+      </c>
+      <c r="E24" s="7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B25" s="7">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3.2650000000000001</v>
+      </c>
+      <c r="D25" s="7">
+        <v>98</v>
+      </c>
+      <c r="E25" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B26" s="7">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1.6139999999999999</v>
+      </c>
+      <c r="D26" s="7">
+        <v>93</v>
+      </c>
+      <c r="E26" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B27" s="7">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2.1339999999999999</v>
+      </c>
+      <c r="D27" s="7">
+        <v>91</v>
+      </c>
+      <c r="E27" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B28" s="7">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2.0369999999999999</v>
+      </c>
+      <c r="D28" s="7">
+        <v>88</v>
+      </c>
+      <c r="E28" s="6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B29" s="7">
+        <v>28</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2.9830000000000001</v>
+      </c>
+      <c r="D29" s="7">
+        <v>95</v>
+      </c>
+      <c r="E29" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B30" s="7">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3.097</v>
+      </c>
+      <c r="D30" s="7">
+        <v>85</v>
+      </c>
+      <c r="E30" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B31" s="7">
+        <v>30</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2.7349999999999999</v>
+      </c>
+      <c r="D31" s="7">
+        <v>94</v>
+      </c>
+      <c r="E31" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B32" s="7">
+        <v>31</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2.5779999999999998</v>
+      </c>
+      <c r="D32" s="7">
+        <v>93</v>
+      </c>
+      <c r="E32" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B33" s="7">
+        <v>32</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2.7919999999999998</v>
+      </c>
+      <c r="D33" s="7">
+        <v>86</v>
+      </c>
+      <c r="E33" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B34" s="7">
+        <v>33</v>
+      </c>
+      <c r="C34" s="4">
+        <v>3.07</v>
+      </c>
+      <c r="D34" s="7">
+        <v>93</v>
+      </c>
+      <c r="E34" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B35" s="7">
+        <v>34</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2.6930000000000001</v>
+      </c>
+      <c r="D35" s="7">
+        <v>89</v>
+      </c>
+      <c r="E35" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B36" s="7">
+        <v>35</v>
+      </c>
+      <c r="C36" s="4">
+        <v>2.6829999999999998</v>
+      </c>
+      <c r="D36" s="7">
+        <v>86</v>
+      </c>
+      <c r="E36" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B37" s="7">
+        <v>36</v>
+      </c>
+      <c r="C37" s="4">
+        <v>3.0510000000000002</v>
+      </c>
+      <c r="D37" s="7">
+        <v>88</v>
+      </c>
+      <c r="E37" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B38" s="7">
+        <v>37</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2.456</v>
+      </c>
+      <c r="D38" s="7">
+        <v>94</v>
+      </c>
+      <c r="E38" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B39" s="7">
+        <v>38</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2.2410000000000001</v>
+      </c>
+      <c r="D39" s="7">
+        <v>93</v>
+      </c>
+      <c r="E39" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B40" s="7">
+        <v>39</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="D40" s="7">
+        <v>92</v>
+      </c>
+      <c r="E40" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B41" s="7">
+        <v>40</v>
+      </c>
+      <c r="C41" s="4">
+        <v>2.8540000000000001</v>
+      </c>
+      <c r="D41" s="7">
+        <v>95</v>
+      </c>
+      <c r="E41" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B42" s="7">
+        <v>41</v>
+      </c>
+      <c r="C42" s="4">
+        <v>2.165</v>
+      </c>
+      <c r="D42" s="7">
+        <v>91</v>
+      </c>
+      <c r="E42" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B43" s="7">
+        <v>42</v>
+      </c>
+      <c r="C43" s="4">
+        <v>2.202</v>
+      </c>
+      <c r="D43" s="7">
+        <v>92</v>
+      </c>
+      <c r="E43" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B44" s="7">
+        <v>43</v>
+      </c>
+      <c r="C44" s="4">
+        <v>2.2570000000000001</v>
+      </c>
+      <c r="D44" s="7">
+        <v>93</v>
+      </c>
+      <c r="E44" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B45" s="7">
+        <v>44</v>
+      </c>
+      <c r="C45" s="4">
+        <v>2.0579999999999998</v>
+      </c>
+      <c r="D45" s="7">
+        <v>85</v>
+      </c>
+      <c r="E45" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B46" s="7">
+        <v>45</v>
+      </c>
+      <c r="C46" s="4">
+        <v>2.4180000000000001</v>
+      </c>
+      <c r="D46" s="7">
+        <v>89</v>
+      </c>
+      <c r="E46" s="6">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7783F138-82E8-4006-900E-8A188B46D73D}">
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43838</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1.52</v>
+      </c>
+      <c r="D2" s="6">
+        <v>95</v>
+      </c>
+      <c r="E2" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43846</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2.0510000000000002</v>
+      </c>
+      <c r="D3" s="6">
+        <v>96</v>
+      </c>
+      <c r="E3" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1.528</v>
+      </c>
+      <c r="D4" s="6">
+        <v>95</v>
+      </c>
+      <c r="E4" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.7349999999999999</v>
+      </c>
+      <c r="D5" s="6">
+        <v>96</v>
+      </c>
+      <c r="E5" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="D6" s="6">
+        <v>96</v>
+      </c>
+      <c r="E6" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1.5670000000000002</v>
+      </c>
+      <c r="D7" s="6">
+        <v>94</v>
+      </c>
+      <c r="E7" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1.4690000000000001</v>
+      </c>
+      <c r="D8" s="6">
+        <v>79</v>
+      </c>
+      <c r="E8" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1.708</v>
+      </c>
+      <c r="D9" s="6">
+        <v>95</v>
+      </c>
+      <c r="E9" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="D10" s="6">
+        <v>95</v>
+      </c>
+      <c r="E10" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1.288</v>
+      </c>
+      <c r="D11" s="6">
+        <v>96</v>
+      </c>
+      <c r="E11" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2.7280000000000002</v>
+      </c>
+      <c r="D12" s="6">
+        <v>94</v>
+      </c>
+      <c r="E12" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2.355</v>
+      </c>
+      <c r="D13" s="6">
+        <v>93</v>
+      </c>
+      <c r="E13" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2.5219999999999998</v>
+      </c>
+      <c r="D14" s="6">
+        <v>94</v>
+      </c>
+      <c r="E14" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2.4809999999999999</v>
+      </c>
+      <c r="D15" s="6">
+        <v>94</v>
+      </c>
+      <c r="E15" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43885</v>
+      </c>
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1.4830000000000001</v>
+      </c>
+      <c r="D16" s="6">
+        <v>93</v>
+      </c>
+      <c r="E16" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1.77</v>
+      </c>
+      <c r="D17" s="6">
+        <v>92</v>
+      </c>
+      <c r="E17" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1.8090000000000002</v>
+      </c>
+      <c r="D18" s="6">
+        <v>96</v>
+      </c>
+      <c r="E18" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1.6139999999999999</v>
+      </c>
+      <c r="D19" s="6">
+        <v>95</v>
+      </c>
+      <c r="E19" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1.5289999999999999</v>
+      </c>
+      <c r="D20" s="6">
+        <v>93</v>
+      </c>
+      <c r="E20" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1.819</v>
+      </c>
+      <c r="D21" s="6">
+        <v>95</v>
+      </c>
+      <c r="E21" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B22" s="6">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1.4339999999999999</v>
+      </c>
+      <c r="D22" s="6">
+        <v>87</v>
+      </c>
+      <c r="E22" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B23" s="6">
+        <v>22</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2.137</v>
+      </c>
+      <c r="D23" s="6">
+        <v>96</v>
+      </c>
+      <c r="E23" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B24" s="6">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1.7309999999999999</v>
+      </c>
+      <c r="D24" s="6">
+        <v>93</v>
+      </c>
+      <c r="E24" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B25" s="6">
+        <v>24</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1.4410000000000001</v>
+      </c>
+      <c r="D25" s="6">
+        <v>69</v>
+      </c>
+      <c r="E25" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B26" s="6">
+        <v>25</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1.3759999999999999</v>
+      </c>
+      <c r="D26" s="6">
+        <v>95</v>
+      </c>
+      <c r="E26" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B27" s="6">
+        <v>26</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1.3129999999999999</v>
+      </c>
+      <c r="D27" s="6">
+        <v>95</v>
+      </c>
+      <c r="E27" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B28" s="6">
+        <v>27</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1.18</v>
+      </c>
+      <c r="D28" s="6">
+        <v>91</v>
+      </c>
+      <c r="E28" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B29" s="6">
+        <v>28</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1.7930000000000001</v>
+      </c>
+      <c r="D29" s="6">
+        <v>94</v>
+      </c>
+      <c r="E29" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B30" s="6">
+        <v>29</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="D30" s="6">
+        <v>95</v>
+      </c>
+      <c r="E30" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B31" s="6">
+        <v>30</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1.54</v>
+      </c>
+      <c r="D31" s="6">
+        <v>94</v>
+      </c>
+      <c r="E31" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B32" s="6">
+        <v>31</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="D32" s="6">
+        <v>92</v>
+      </c>
+      <c r="E32" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B33" s="6">
+        <v>32</v>
+      </c>
+      <c r="C33" s="8">
+        <v>1.3820000000000001</v>
+      </c>
+      <c r="D33" s="6">
+        <v>95</v>
+      </c>
+      <c r="E33" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B34" s="6">
+        <v>33</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1.7749999999999999</v>
+      </c>
+      <c r="D34" s="7">
+        <v>94</v>
+      </c>
+      <c r="E34" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B35" s="6">
+        <v>34</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1.212</v>
+      </c>
+      <c r="D35" s="7">
+        <v>95</v>
+      </c>
+      <c r="E35" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B36" s="6">
+        <v>35</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1.627</v>
+      </c>
+      <c r="D36" s="7">
+        <v>95</v>
+      </c>
+      <c r="E36" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B37" s="6">
+        <v>36</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1.474</v>
+      </c>
+      <c r="D37" s="7">
+        <v>90</v>
+      </c>
+      <c r="E37" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B38" s="6">
+        <v>37</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1.639</v>
+      </c>
+      <c r="D38" s="7">
+        <v>95</v>
+      </c>
+      <c r="E38" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B39" s="6">
+        <v>38</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="D39" s="7">
+        <v>94</v>
+      </c>
+      <c r="E39" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B40" s="6">
+        <v>39</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="D40" s="7">
+        <v>89</v>
+      </c>
+      <c r="E40" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B41" s="6">
+        <v>40</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="D41" s="7">
+        <v>92</v>
+      </c>
+      <c r="E41" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B42" s="6">
+        <v>41</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1.034</v>
+      </c>
+      <c r="D42" s="7">
+        <v>93</v>
+      </c>
+      <c r="E42" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B43" s="6">
+        <v>42</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1.1830000000000001</v>
+      </c>
+      <c r="D43" s="7">
+        <v>94</v>
+      </c>
+      <c r="E43" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B44" s="6">
+        <v>43</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1.522</v>
+      </c>
+      <c r="D44" s="7">
+        <v>94</v>
+      </c>
+      <c r="E44" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B45" s="6">
+        <v>44</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1.631</v>
+      </c>
+      <c r="D45" s="7">
+        <v>84</v>
+      </c>
+      <c r="E45" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B46" s="6">
+        <v>45</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1.4079999999999999</v>
+      </c>
+      <c r="D46" s="7">
+        <v>92</v>
+      </c>
+      <c r="E46" s="6">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68A99E2-1845-4E7E-8A11-180BF4193A6C}">
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43838</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1.522</v>
+      </c>
+      <c r="D2" s="6">
+        <v>94</v>
+      </c>
+      <c r="E2" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43846</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1.756</v>
+      </c>
+      <c r="D3" s="6">
+        <v>96</v>
+      </c>
+      <c r="E3" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1.2669999999999999</v>
+      </c>
+      <c r="D4" s="6">
+        <v>93</v>
+      </c>
+      <c r="E4" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.4809999999999999</v>
+      </c>
+      <c r="D5" s="6">
+        <v>91</v>
+      </c>
+      <c r="E5" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1.427</v>
+      </c>
+      <c r="D6" s="6">
+        <v>92</v>
+      </c>
+      <c r="E6" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1.329</v>
+      </c>
+      <c r="D7" s="6">
+        <v>92</v>
+      </c>
+      <c r="E7" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2.0640000000000001</v>
+      </c>
+      <c r="D8" s="6">
+        <v>96</v>
+      </c>
+      <c r="E8" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2.347</v>
+      </c>
+      <c r="D9" s="6">
+        <v>96</v>
+      </c>
+      <c r="E9" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1.657</v>
+      </c>
+      <c r="D10" s="6">
+        <v>93</v>
+      </c>
+      <c r="E10" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2.17</v>
+      </c>
+      <c r="D11" s="6">
+        <v>91</v>
+      </c>
+      <c r="E11" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1.8759999999999999</v>
+      </c>
+      <c r="D12" s="6">
+        <v>91</v>
+      </c>
+      <c r="E12" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2.2730000000000001</v>
+      </c>
+      <c r="D13" s="6">
+        <v>91</v>
+      </c>
+      <c r="E13" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1.716</v>
+      </c>
+      <c r="D14" s="6">
+        <v>90</v>
+      </c>
+      <c r="E14" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1.6539999999999999</v>
+      </c>
+      <c r="D15" s="6">
+        <v>96</v>
+      </c>
+      <c r="E15" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1.8340000000000001</v>
+      </c>
+      <c r="D16" s="6">
+        <v>89</v>
+      </c>
+      <c r="E16" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1.7269999999999999</v>
+      </c>
+      <c r="D17" s="6">
+        <v>89</v>
+      </c>
+      <c r="E17" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1.8420000000000001</v>
+      </c>
+      <c r="D18" s="6">
+        <v>96</v>
+      </c>
+      <c r="E18" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1.8029999999999999</v>
+      </c>
+      <c r="D19" s="6">
+        <v>97</v>
+      </c>
+      <c r="E19" s="6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1.9540000000000002</v>
+      </c>
+      <c r="D20" s="6">
+        <v>96</v>
+      </c>
+      <c r="E20" s="6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1.8010000000000002</v>
+      </c>
+      <c r="D21" s="6">
+        <v>92</v>
+      </c>
+      <c r="E21" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B22" s="6">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8">
+        <v>2.331</v>
+      </c>
+      <c r="D22" s="6">
+        <v>97</v>
+      </c>
+      <c r="E22" s="6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B23" s="6">
+        <v>22</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1.6520000000000001</v>
+      </c>
+      <c r="D23" s="6">
+        <v>70</v>
+      </c>
+      <c r="E23" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B24" s="6">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1.577</v>
+      </c>
+      <c r="D24" s="6">
+        <v>94</v>
+      </c>
+      <c r="E24" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B25" s="6">
+        <v>24</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="D25" s="6">
+        <v>95</v>
+      </c>
+      <c r="E25" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B26" s="6">
+        <v>25</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1.3940000000000001</v>
+      </c>
+      <c r="D26" s="6">
+        <v>91</v>
+      </c>
+      <c r="E26" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B27" s="6">
+        <v>26</v>
+      </c>
+      <c r="C27" s="8">
+        <v>2.0790000000000002</v>
+      </c>
+      <c r="D27" s="6">
+        <v>97</v>
+      </c>
+      <c r="E27" s="6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B28" s="6">
+        <v>27</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1.599</v>
+      </c>
+      <c r="D28" s="6">
+        <v>91</v>
+      </c>
+      <c r="E28" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B29" s="6">
+        <v>28</v>
+      </c>
+      <c r="C29" s="8">
+        <v>2.4950000000000001</v>
+      </c>
+      <c r="D29" s="6">
+        <v>85</v>
+      </c>
+      <c r="E29" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B30" s="6">
+        <v>29</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1.32</v>
+      </c>
+      <c r="D30" s="6">
+        <v>96</v>
+      </c>
+      <c r="E30" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B31" s="6">
+        <v>30</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1.526</v>
+      </c>
+      <c r="D31" s="6">
+        <v>96</v>
+      </c>
+      <c r="E31" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B32" s="6">
+        <v>31</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2.2229999999999999</v>
+      </c>
+      <c r="D32" s="6">
+        <v>97</v>
+      </c>
+      <c r="E32" s="6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B33" s="6">
+        <v>32</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1.175</v>
+      </c>
+      <c r="D33" s="7">
+        <v>91</v>
+      </c>
+      <c r="E33" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B34" s="6">
+        <v>33</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1.583</v>
+      </c>
+      <c r="D34" s="7">
+        <v>97</v>
+      </c>
+      <c r="E34" s="6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B35" s="6">
+        <v>34</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="D35" s="7">
+        <v>96</v>
+      </c>
+      <c r="E35" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B36" s="6">
+        <v>35</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1.8639999999999999</v>
+      </c>
+      <c r="D36" s="7">
+        <v>94</v>
+      </c>
+      <c r="E36" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B37" s="6">
+        <v>36</v>
+      </c>
+      <c r="C37" s="4">
+        <v>2.1480000000000001</v>
+      </c>
+      <c r="D37" s="7">
+        <v>97</v>
+      </c>
+      <c r="E37" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B38" s="6">
+        <v>37</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1.476</v>
+      </c>
+      <c r="D38" s="7">
+        <v>96</v>
+      </c>
+      <c r="E38" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B39" s="6">
+        <v>38</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1.633</v>
+      </c>
+      <c r="D39" s="7">
+        <v>95</v>
+      </c>
+      <c r="E39" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B40" s="6">
+        <v>39</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1.444</v>
+      </c>
+      <c r="D40" s="7">
+        <v>96</v>
+      </c>
+      <c r="E40" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B41" s="6">
+        <v>40</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1.8340000000000001</v>
+      </c>
+      <c r="D41" s="7">
+        <v>96</v>
+      </c>
+      <c r="E41" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B42" s="6">
+        <v>41</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1.835</v>
+      </c>
+      <c r="D42" s="7">
+        <v>96</v>
+      </c>
+      <c r="E42" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B43" s="6">
+        <v>42</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="D43" s="7">
+        <v>96</v>
+      </c>
+      <c r="E43" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B44" s="6">
+        <v>43</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1.8109999999999999</v>
+      </c>
+      <c r="D44" s="7">
+        <v>91</v>
+      </c>
+      <c r="E44" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B45" s="6">
+        <v>44</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1.456</v>
+      </c>
+      <c r="D45" s="7">
+        <v>94</v>
+      </c>
+      <c r="E45" s="6">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DF669A-C484-4E99-9239-3991F5A1F4B6}">
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43838</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="D2" s="6">
+        <v>94</v>
+      </c>
+      <c r="E2" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43846</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2.097</v>
+      </c>
+      <c r="D3" s="6">
+        <v>94</v>
+      </c>
+      <c r="E3" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="D4" s="6">
+        <v>87</v>
+      </c>
+      <c r="E4" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="D5" s="6">
+        <v>89</v>
+      </c>
+      <c r="E5" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="D6" s="6">
+        <v>89</v>
+      </c>
+      <c r="E6" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1.022</v>
+      </c>
+      <c r="D7" s="6">
+        <v>89</v>
+      </c>
+      <c r="E7" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2.1110000000000002</v>
+      </c>
+      <c r="D8" s="6">
+        <v>94</v>
+      </c>
+      <c r="E8" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1.645</v>
+      </c>
+      <c r="D9" s="6">
+        <v>94</v>
+      </c>
+      <c r="E9" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1.19</v>
+      </c>
+      <c r="D10" s="6">
+        <v>86</v>
+      </c>
+      <c r="E10" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1.9219999999999999</v>
+      </c>
+      <c r="D11" s="6">
+        <v>96</v>
+      </c>
+      <c r="E11" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1.758</v>
+      </c>
+      <c r="D12" s="6">
+        <v>95</v>
+      </c>
+      <c r="E12" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2.0390000000000001</v>
+      </c>
+      <c r="D13" s="6">
+        <v>96</v>
+      </c>
+      <c r="E13" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2.1429999999999998</v>
+      </c>
+      <c r="D14" s="6">
+        <v>95</v>
+      </c>
+      <c r="E14" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1.415</v>
+      </c>
+      <c r="D15" s="6">
+        <v>90</v>
+      </c>
+      <c r="E15" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2.3029999999999999</v>
+      </c>
+      <c r="D16" s="6">
+        <v>96</v>
+      </c>
+      <c r="E16" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2.1480000000000001</v>
+      </c>
+      <c r="D17" s="6">
+        <v>96</v>
+      </c>
+      <c r="E17" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1.9969999999999999</v>
+      </c>
+      <c r="D18" s="6">
+        <v>95</v>
+      </c>
+      <c r="E18" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="D19" s="6">
+        <v>91</v>
+      </c>
+      <c r="E19" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B20" s="6">
+        <v>19</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1.7869999999999999</v>
+      </c>
+      <c r="D20" s="6">
+        <v>96</v>
+      </c>
+      <c r="E20" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="D21" s="6">
+        <v>89</v>
+      </c>
+      <c r="E21" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B22" s="6">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1.232</v>
+      </c>
+      <c r="D22" s="6">
+        <v>89</v>
+      </c>
+      <c r="E22" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B23" s="6">
+        <v>22</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="D23" s="6">
+        <v>91</v>
+      </c>
+      <c r="E23" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B24" s="6">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1.145</v>
+      </c>
+      <c r="D24" s="6">
+        <v>88</v>
+      </c>
+      <c r="E24" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B25" s="6">
+        <v>24</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D25" s="6">
+        <v>92</v>
+      </c>
+      <c r="E25" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B26" s="6">
+        <v>25</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="D26" s="6">
+        <v>89</v>
+      </c>
+      <c r="E26" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B27" s="6">
+        <v>26</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1.18</v>
+      </c>
+      <c r="D27" s="6">
+        <v>91</v>
+      </c>
+      <c r="E27" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B28" s="6">
+        <v>27</v>
+      </c>
+      <c r="C28" s="8">
+        <v>2.8130000000000002</v>
+      </c>
+      <c r="D28" s="6">
+        <v>94</v>
+      </c>
+      <c r="E28" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B29" s="6">
+        <v>28</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="D29" s="6">
+        <v>91</v>
+      </c>
+      <c r="E29" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B30" s="6">
+        <v>29</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="D30" s="6">
+        <v>92</v>
+      </c>
+      <c r="E30" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B31" s="6">
+        <v>30</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="D31" s="6">
+        <v>92</v>
+      </c>
+      <c r="E31" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B32" s="6">
+        <v>31</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="D32" s="6">
+        <v>96</v>
+      </c>
+      <c r="E32" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B33" s="6">
+        <v>32</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="D33" s="7">
+        <v>90</v>
+      </c>
+      <c r="E33" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B34" s="6">
+        <v>33</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1.419</v>
+      </c>
+      <c r="D34" s="7">
+        <v>93</v>
+      </c>
+      <c r="E34" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B35" s="6">
+        <v>34</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2.08</v>
+      </c>
+      <c r="D35" s="7">
+        <v>94</v>
+      </c>
+      <c r="E35" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B36" s="6">
+        <v>35</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1.657</v>
+      </c>
+      <c r="D36" s="7">
+        <v>93</v>
+      </c>
+      <c r="E36" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B37" s="6">
+        <v>36</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.81600000000000006</v>
+      </c>
+      <c r="D37" s="7">
+        <v>89</v>
+      </c>
+      <c r="E37" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B38" s="6">
+        <v>37</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="D38" s="7">
+        <v>73</v>
+      </c>
+      <c r="E38" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B39" s="6">
+        <v>38</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="D39" s="7">
+        <v>92</v>
+      </c>
+      <c r="E39" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B40" s="6">
+        <v>39</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1.9060000000000001</v>
+      </c>
+      <c r="D40" s="7">
+        <v>95</v>
+      </c>
+      <c r="E40" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B41" s="6">
+        <v>40</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1.861</v>
+      </c>
+      <c r="D41" s="7">
+        <v>95</v>
+      </c>
+      <c r="E41" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B42" s="6">
+        <v>41</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1.5510000000000002</v>
+      </c>
+      <c r="D42" s="7">
+        <v>92</v>
+      </c>
+      <c r="E42" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B43" s="6">
+        <v>42</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1.5880000000000001</v>
+      </c>
+      <c r="D43" s="7">
+        <v>93</v>
+      </c>
+      <c r="E43" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B44" s="6">
+        <v>43</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1.669</v>
+      </c>
+      <c r="D44" s="7">
+        <v>92</v>
+      </c>
+      <c r="E44" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B45" s="6">
+        <v>44</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="D45" s="7">
+        <v>87</v>
+      </c>
+      <c r="E45" s="6">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>